--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_NgocKimAnh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_NgocKimAnh.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -269,6 +269,36 @@
   </si>
   <si>
     <t>ĐM</t>
+  </si>
+  <si>
+    <t>WP21120135S02680/0032001EDA</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi tiêu cự cam trước</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>WP21110069S00062/0032001097</t>
+  </si>
+  <si>
+    <t>V3.3.21.3_R21111601</t>
+  </si>
+  <si>
+    <t>Lỗi cáp nguồn liền thiết bị</t>
+  </si>
+  <si>
+    <t>Thay cáp nguồn, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>LK, NCFW</t>
   </si>
 </sst>
 </file>
@@ -512,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,9 +709,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,9 +721,6 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,15 +730,6 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -730,6 +745,81 @@
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,110 +832,68 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1211,7 @@
     <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="71" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="66" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
     <col min="7" max="7" width="17" style="19" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
@@ -1186,43 +1234,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="50"/>
@@ -1267,109 +1315,109 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="77" t="s">
+      <c r="K4" s="85"/>
+      <c r="L4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="90"/>
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="92" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90" t="s">
+      <c r="J5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="93"/>
-      <c r="R5" s="93"/>
-      <c r="S5" s="79"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87">
+      <c r="A6" s="68">
         <v>1</v>
       </c>
-      <c r="B6" s="106">
+      <c r="B6" s="79">
         <v>45021</v>
       </c>
-      <c r="C6" s="106">
+      <c r="C6" s="79">
         <v>45021</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1378,197 +1426,251 @@
       <c r="E6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="108" t="s">
+      <c r="H6" s="80"/>
+      <c r="I6" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="109"/>
-      <c r="K6" s="110" t="s">
+      <c r="J6" s="82"/>
+      <c r="K6" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="111" t="s">
+      <c r="L6" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="M6" s="111" t="s">
+      <c r="M6" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="N6" s="109"/>
-      <c r="O6" s="111" t="s">
+      <c r="N6" s="82"/>
+      <c r="O6" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="111" t="s">
+      <c r="P6" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="110" t="s">
+      <c r="Q6" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="110" t="s">
+      <c r="R6" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="88"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="73" t="s">
+      <c r="S6" s="69"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="63"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="68">
         <v>2</v>
       </c>
-      <c r="B7" s="106">
+      <c r="B7" s="101">
         <v>45021</v>
       </c>
-      <c r="C7" s="106">
+      <c r="C7" s="101">
         <v>45021</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="102"/>
+      <c r="G7" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="J7" s="109"/>
-      <c r="K7" s="110" t="s">
+      <c r="J7" s="104"/>
+      <c r="K7" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="111" t="s">
+      <c r="L7" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="111" t="s">
+      <c r="M7" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="111" t="s">
+      <c r="N7" s="104"/>
+      <c r="O7" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="111" t="s">
+      <c r="P7" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="110" t="s">
+      <c r="Q7" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="110" t="s">
+      <c r="R7" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="89"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="74"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="63"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="68">
         <v>3</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="74"/>
+      <c r="B8" s="113">
+        <v>45029</v>
+      </c>
+      <c r="C8" s="113">
+        <v>45029</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="115"/>
+      <c r="I8" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="117"/>
+      <c r="O8" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" s="70"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="63"/>
+      <c r="W8" s="61"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="68">
         <v>4</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="63"/>
-      <c r="U9" s="74"/>
+      <c r="B9" s="113">
+        <v>45029</v>
+      </c>
+      <c r="C9" s="113">
+        <v>45029</v>
+      </c>
+      <c r="D9" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="115"/>
+      <c r="G9" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="117"/>
+      <c r="O9" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="116" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="70"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="63"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="75"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="74"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="63"/>
+      <c r="W10" s="61"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="60"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="37"/>
       <c r="E11" s="49"/>
       <c r="F11" s="48"/>
@@ -1585,19 +1687,19 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="63"/>
-      <c r="U11" s="74"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="63"/>
+      <c r="W11" s="61"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="37"/>
       <c r="E12" s="49"/>
       <c r="F12" s="37"/>
@@ -1614,21 +1716,21 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="73" t="s">
+      <c r="T12" s="61"/>
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="63"/>
+      <c r="W12" s="61"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="60"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="37"/>
       <c r="E13" s="49"/>
       <c r="F13" s="48"/>
@@ -1645,19 +1747,19 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="74"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="63"/>
+      <c r="W13" s="61"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="37"/>
       <c r="E14" s="49"/>
       <c r="F14" s="37"/>
@@ -1674,21 +1776,21 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="63"/>
-      <c r="U14" s="74"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="63"/>
+      <c r="W14" s="61"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="59"/>
       <c r="D15" s="37"/>
-      <c r="E15" s="72"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="48"/>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
@@ -1704,18 +1806,18 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="63"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="60"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="37"/>
       <c r="E16" s="49"/>
       <c r="F16" s="48"/>
@@ -1733,18 +1835,18 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="63"/>
+      <c r="W16" s="61"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="60"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="59"/>
       <c r="D17" s="37"/>
       <c r="E17" s="49"/>
       <c r="F17" s="37"/>
@@ -1762,15 +1864,15 @@
       <c r="R17" s="37"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="63"/>
+      <c r="U17" s="61"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="63"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="8"/>
       <c r="D18" s="37"/>
       <c r="E18" s="49"/>
@@ -1797,7 +1899,7 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="8"/>
       <c r="D19" s="37"/>
       <c r="E19" s="49"/>
@@ -1816,7 +1918,7 @@
       <c r="R19" s="37"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="62" t="s">
+      <c r="U19" s="60" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1828,7 +1930,7 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="8"/>
       <c r="D20" s="37"/>
       <c r="E20" s="49"/>
@@ -1860,7 +1962,7 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="8"/>
       <c r="D21" s="37"/>
       <c r="E21" s="49"/>
@@ -1884,7 +1986,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1892,10 +1994,10 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="8"/>
       <c r="D22" s="37"/>
-      <c r="E22" s="72"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="37"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -1916,7 +2018,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -1924,7 +2026,7 @@
       <c r="A23" s="3">
         <v>18</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="8"/>
       <c r="D23" s="37"/>
       <c r="E23" s="49"/>
@@ -1951,7 +2053,7 @@
       <c r="A24" s="3">
         <v>19</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="8"/>
       <c r="D24" s="37"/>
       <c r="E24" s="49"/>
@@ -1978,7 +2080,7 @@
       <c r="A25" s="3">
         <v>20</v>
       </c>
-      <c r="B25" s="64"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="8"/>
       <c r="D25" s="37"/>
       <c r="E25" s="49"/>
@@ -1997,7 +2099,7 @@
       <c r="R25" s="37"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="62" t="s">
+      <c r="U25" s="60" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2009,7 +2111,7 @@
       <c r="A26" s="3">
         <v>21</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="8"/>
       <c r="D26" s="37"/>
       <c r="E26" s="49"/>
@@ -2041,7 +2143,7 @@
       <c r="A27" s="3">
         <v>22</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="8"/>
       <c r="D27" s="37"/>
       <c r="E27" s="49"/>
@@ -2073,10 +2175,10 @@
       <c r="A28" s="3">
         <v>23</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="8"/>
       <c r="D28" s="37"/>
-      <c r="E28" s="72"/>
+      <c r="E28" s="67"/>
       <c r="F28" s="37"/>
       <c r="G28" s="9"/>
       <c r="H28" s="1"/>
@@ -2105,7 +2207,7 @@
       <c r="A29" s="3">
         <v>24</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="8"/>
       <c r="D29" s="37"/>
       <c r="E29" s="49"/>
@@ -2137,10 +2239,10 @@
       <c r="A30" s="3">
         <v>25</v>
       </c>
-      <c r="B30" s="64"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="8"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="68"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="1"/>
@@ -2169,10 +2271,10 @@
       <c r="A31" s="3">
         <v>26</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="8"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="68"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="1"/>
@@ -2193,7 +2295,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2201,10 +2303,10 @@
       <c r="A32" s="3">
         <v>27</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="8"/>
       <c r="D32" s="37"/>
-      <c r="E32" s="68"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="1"/>
@@ -2233,10 +2335,10 @@
       <c r="A33" s="3">
         <v>28</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="8"/>
       <c r="D33" s="37"/>
-      <c r="E33" s="68"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="1"/>
@@ -2265,10 +2367,10 @@
       <c r="A34" s="3">
         <v>29</v>
       </c>
-      <c r="B34" s="64"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="8"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="68"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="1"/>
@@ -2297,10 +2399,10 @@
       <c r="A35" s="3">
         <v>30</v>
       </c>
-      <c r="B35" s="64"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="8"/>
       <c r="D35" s="37"/>
-      <c r="E35" s="68"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="1"/>
@@ -2321,7 +2423,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2329,10 +2431,10 @@
       <c r="A36" s="3">
         <v>31</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="8"/>
       <c r="D36" s="37"/>
-      <c r="E36" s="68"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="1"/>
@@ -2361,10 +2463,10 @@
       <c r="A37" s="3">
         <v>32</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="8"/>
       <c r="D37" s="37"/>
-      <c r="E37" s="68"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="1"/>
@@ -2385,7 +2487,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2393,10 +2495,10 @@
       <c r="A38" s="3">
         <v>33</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="8"/>
       <c r="D38" s="37"/>
-      <c r="E38" s="68"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="1"/>
@@ -2420,10 +2522,10 @@
       <c r="A39" s="3">
         <v>34</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="68"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="1"/>
@@ -2447,10 +2549,10 @@
       <c r="A40" s="3">
         <v>35</v>
       </c>
-      <c r="B40" s="57"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="68"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="1"/>
@@ -2479,10 +2581,10 @@
       <c r="A41" s="3">
         <v>36</v>
       </c>
-      <c r="B41" s="57"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="68"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="1"/>
@@ -2511,10 +2613,10 @@
       <c r="A42" s="3">
         <v>37</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="68"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="1"/>
@@ -2538,10 +2640,10 @@
       <c r="A43" s="3">
         <v>38</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="68"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="1"/>
@@ -2565,10 +2667,10 @@
       <c r="A44" s="3">
         <v>39</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="8"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="68"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="1"/>
@@ -2601,10 +2703,10 @@
       <c r="A45" s="3">
         <v>40</v>
       </c>
-      <c r="B45" s="57"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9"/>
-      <c r="E45" s="68"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="1"/>
@@ -2640,10 +2742,10 @@
       <c r="A46" s="3">
         <v>41</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="68"/>
+      <c r="E46" s="63"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="1"/>
@@ -2679,10 +2781,10 @@
       <c r="A47" s="3">
         <v>42</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="68"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="1"/>
@@ -2718,10 +2820,10 @@
       <c r="A48" s="3">
         <v>43</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="68"/>
+      <c r="E48" s="63"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="1"/>
@@ -2757,10 +2859,10 @@
       <c r="A49" s="3">
         <v>44</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="8"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="68"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="1"/>
@@ -2785,10 +2887,10 @@
       <c r="A50" s="28">
         <v>45</v>
       </c>
-      <c r="B50" s="58"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="29"/>
       <c r="D50" s="42"/>
-      <c r="E50" s="69"/>
+      <c r="E50" s="64"/>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
       <c r="H50" s="31"/>
@@ -2813,10 +2915,10 @@
       <c r="A51" s="3">
         <v>46</v>
       </c>
-      <c r="B51" s="57"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="8"/>
       <c r="D51" s="9"/>
-      <c r="E51" s="68"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="1"/>
@@ -2841,10 +2943,10 @@
       <c r="A52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="59"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="70"/>
+      <c r="E52" s="65"/>
       <c r="F52" s="32"/>
       <c r="G52" s="32"/>
       <c r="H52" s="32"/>
@@ -2869,10 +2971,10 @@
       <c r="A53" s="3">
         <v>48</v>
       </c>
-      <c r="B53" s="59"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="70"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
@@ -2897,10 +2999,10 @@
       <c r="A54" s="3">
         <v>49</v>
       </c>
-      <c r="B54" s="59"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="70"/>
+      <c r="E54" s="65"/>
       <c r="F54" s="32"/>
       <c r="G54" s="32"/>
       <c r="H54" s="32"/>
@@ -2925,10 +3027,10 @@
       <c r="A55" s="3">
         <v>50</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
-      <c r="E55" s="70"/>
+      <c r="E55" s="65"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -2961,6 +3063,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2972,13 +3081,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3022,43 +3124,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3103,58 +3205,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="80"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="80" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="86" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="80" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="80" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3179,31 +3281,31 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="80"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="79"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="37"/>
       <c r="E6" s="38"/>
       <c r="F6" s="48"/>
@@ -3221,7 +3323,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="93" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3233,8 +3335,8 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
@@ -3252,7 +3354,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="94"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3262,8 +3364,8 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="48"/>
@@ -3281,7 +3383,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="94"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3291,8 +3393,8 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="48"/>
@@ -3310,7 +3412,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="94"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3320,8 +3422,8 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="37"/>
@@ -3339,7 +3441,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="94"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3368,7 +3470,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="94"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3397,7 +3499,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="93" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3428,7 +3530,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="94"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3457,7 +3559,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="94"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3486,7 +3588,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="94"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3515,7 +3617,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="95"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4746,13 +4848,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4764,6 +4859,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
